--- a/data/metadata/mapping-modalidad.xlsx
+++ b/data/metadata/mapping-modalidad.xlsx
@@ -92,20 +92,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -115,15 +120,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
